--- a/document/Configuration/Trello Tag.xlsx
+++ b/document/Configuration/Trello Tag.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Trello Tag Configuration</t>
   </si>
@@ -64,6 +64,87 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Movie - List</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Search Account</t>
+  </si>
+  <si>
+    <t>Movie - Management</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User / Admin</t>
+  </si>
+  <si>
+    <t>MOVIE0101</t>
+  </si>
+  <si>
+    <t>MOVIE0102</t>
+  </si>
+  <si>
+    <t>ACMGT0101</t>
+  </si>
+  <si>
+    <t>ACMGT0102</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>REST Back-end</t>
+  </si>
+  <si>
+    <t>Document for Project</t>
+  </si>
+  <si>
+    <t>HTML/JS</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Screen Front-end HTML / JS</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>LightGreen</t>
+  </si>
+  <si>
+    <t>JAVA Back-end</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -185,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +296,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -497,24 +581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="5" width="16.5" customWidth="1"/>
+    <col min="2" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,8 +616,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -544,69 +633,92 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -614,30 +726,167 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Configuration/Trello Tag.xlsx
+++ b/document/Configuration/Trello Tag.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Trello Tag Configuration</t>
   </si>
@@ -145,13 +145,28 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Introduce Project and Objective</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Python Back-end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +174,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -266,11 +295,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -300,6 +326,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,298 +627,325 @@
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Configuration/Trello Tag.xlsx
+++ b/document/Configuration/Trello Tag.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Trello Tag Configuration</t>
   </si>
@@ -160,12 +160,24 @@
   </si>
   <si>
     <t>Python Back-end</t>
+  </si>
+  <si>
+    <t>Power Point</t>
+  </si>
+  <si>
+    <t>Presentation in PPT</t>
+  </si>
+  <si>
+    <t>DOCPROJECT</t>
+  </si>
+  <si>
+    <t>Project Offer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,16 +694,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>41</v>
@@ -702,36 +714,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>41</v>
@@ -742,16 +752,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
@@ -762,16 +772,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>41</v>
@@ -782,15 +792,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
@@ -802,13 +814,15 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
@@ -821,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
@@ -839,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
@@ -854,19 +868,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,19 +886,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -894,19 +904,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,38 +924,78 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
